--- a/Excel/SkillConfig@cs.xlsx
+++ b/Excel/SkillConfig@cs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ET_Framwork\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ETPro\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C66F36-06AB-4FB2-B86F-4CCF48B11B5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB47D48-A076-4D86-9D15-55FF7DC6FDA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
   <si>
     <t>#</t>
   </si>
@@ -113,13 +113,37 @@
   </si>
   <si>
     <t>5,1</t>
+  </si>
+  <si>
+    <t>测试吟唱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试流血buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试眩晕buff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试移动型技能</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试矩形伤害范围</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试圆形伤害范围</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +183,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -189,7 +220,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +231,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -479,14 +511,15 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="4" width="5.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="54.5" style="1" customWidth="1"/>
@@ -652,7 +685,9 @@
       <c r="C6" s="3">
         <v>1001</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
@@ -680,7 +715,9 @@
       <c r="C7" s="3">
         <v>1002</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
@@ -708,7 +745,9 @@
       <c r="C8" s="3">
         <v>1003</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
@@ -734,7 +773,9 @@
       <c r="C9" s="3">
         <v>1004</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="6" t="s">
+        <v>33</v>
+      </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
@@ -763,7 +804,9 @@
       <c r="C10" s="3">
         <v>1005</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
@@ -788,8 +831,36 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="E11" s="1"/>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="C11" s="3">
+        <v>1006</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
       <c r="E12" s="1"/>

--- a/Excel/SkillConfig@cs.xlsx
+++ b/Excel/SkillConfig@cs.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitProject\ETPro\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB47D48-A076-4D86-9D15-55FF7DC6FDA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="6" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -40,6 +34,12 @@
     <t>图标</t>
   </si>
   <si>
+    <t>默认阶段</t>
+  </si>
+  <si>
+    <t>打断阶段</t>
+  </si>
+  <si>
     <t>稀有度</t>
   </si>
   <si>
@@ -70,6 +70,12 @@
     <t>Icon</t>
   </si>
   <si>
+    <t>DefaultGroup</t>
+  </si>
+  <si>
+    <t>InterruptGroup</t>
+  </si>
+  <si>
     <t>RareLv</t>
   </si>
   <si>
@@ -100,50 +106,56 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>测试圆形伤害范围</t>
+  </si>
+  <si>
     <t>Skill_Name_NormalAttack</t>
   </si>
   <si>
     <t>UI/UICommon/Atlas/SkillIcon/Atlas/skill_normal_attack.png</t>
   </si>
   <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Interrupt</t>
+  </si>
+  <si>
     <t>Skill_Desc_NormalAttack</t>
   </si>
   <si>
     <t>5,2</t>
   </si>
   <si>
+    <t>测试矩形伤害范围</t>
+  </si>
+  <si>
     <t>5,1</t>
   </si>
   <si>
+    <t>测试移动型技能</t>
+  </si>
+  <si>
+    <t>测试眩晕buff</t>
+  </si>
+  <si>
+    <t>测试流血buff</t>
+  </si>
+  <si>
     <t>测试吟唱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试流血buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试眩晕buff</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试移动型技能</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试矩形伤害范围</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试圆形伤害范围</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,26 +184,155 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,8 +345,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -213,38 +540,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -502,19 +1115,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -522,18 +1135,18 @@
     <col min="4" max="4" width="17.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="30.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="54.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="1" customWidth="1"/>
-    <col min="12" max="12" width="28.375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.25" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="1"/>
+    <col min="7" max="9" width="54.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.25" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="16.25" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" ht="16.5" spans="1:15">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -546,8 +1159,10 @@
       <c r="K1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+    </row>
+    <row r="2" ht="16.5" spans="1:15">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -562,8 +1177,10 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" ht="86.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" ht="86.1" customHeight="1" spans="1:16">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -602,8 +1219,14 @@
       <c r="N3" s="4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="O3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:16">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
@@ -611,308 +1234,362 @@
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:16">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:16">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3">
         <v>1001</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E6" s="3">
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="3"/>
       <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3">
+      <c r="L6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3">
         <v>1</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="P6" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="3:16">
       <c r="C7" s="3">
         <v>1002</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="3"/>
       <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="1">
+      <c r="L7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="1">
         <v>2</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="P7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="3:16">
       <c r="C8" s="3">
         <v>1003</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" s="1">
+        <v>32</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="1">
         <v>2</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="P8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="3:16">
       <c r="C9" s="3">
         <v>1004</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1">
         <v>2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="1">
+        <v>32</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1">
         <v>1</v>
       </c>
-      <c r="M9" s="1">
+      <c r="O9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="10" ht="16.5" spans="3:16">
       <c r="C10" s="3">
         <v>1005</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="1">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="1">
         <v>1</v>
       </c>
-      <c r="M10" s="1">
+      <c r="O10" s="1">
         <v>0</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" ht="16.5" spans="3:16">
       <c r="C11" s="3">
         <v>1006</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E11" s="1">
         <v>2</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="1">
+        <v>32</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N11" s="1">
         <v>1</v>
       </c>
-      <c r="M11" s="1">
+      <c r="O11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="3">
+      <c r="P11" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="12" ht="16.5" spans="5:9">
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" ht="16.5" spans="5:9">
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" ht="16.5" spans="5:9">
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" ht="13.5" spans="5:5">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:14" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="5:5">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="5:5">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="5:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="5:5">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="5:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="5:5">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="5:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="5:5">
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="5:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="5:5">
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="5:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="5:5">
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="5:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:5">
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="5:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="5:5">
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="5:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="5:5">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="5:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="5:5">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="5:5" ht="13.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="5:5">
       <c r="E27" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/SkillConfig@cs.xlsx
+++ b/Excel/SkillConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="11940" tabRatio="809"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="44">
   <si>
     <t>#</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>测试吟唱</t>
+  </si>
+  <si>
+    <t>测试自身圆形伤害范围</t>
   </si>
 </sst>
 </file>
@@ -150,12 +153,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,66 +185,83 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,78 +275,55 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -347,25 +344,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,13 +452,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +476,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,121 +512,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,6 +535,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -552,6 +558,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,32 +604,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,15 +627,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -646,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,138 +655,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -800,7 +797,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1123,8 +1119,8 @@
   <sheetPr/>
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1320,7 +1316,7 @@
       <c r="C6" s="3">
         <v>1001</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="3">
@@ -1356,7 +1352,7 @@
       <c r="C7" s="3">
         <v>1002</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="E7" s="3">
@@ -1392,7 +1388,7 @@
       <c r="C8" s="3">
         <v>1003</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E8" s="1">
@@ -1426,7 +1422,7 @@
       <c r="C9" s="3">
         <v>1004</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="3" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="1">
@@ -1463,7 +1459,7 @@
       <c r="C10" s="3">
         <v>1005</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="3" t="s">
         <v>41</v>
       </c>
       <c r="E10" s="1">
@@ -1500,7 +1496,7 @@
       <c r="C11" s="3">
         <v>1006</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="3" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="1">
@@ -1533,10 +1529,43 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="5:9">
-      <c r="E12" s="1"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+    <row r="12" s="1" customFormat="1" ht="16.5" spans="1:16">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3">
+        <v>1007</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="3">
+        <v>2</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" ht="16.5" spans="5:9">
       <c r="E13" s="1"/>
@@ -1551,40 +1580,40 @@
     <row r="15" ht="13.5" spans="5:5">
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="5:5">
+    <row r="16" ht="13.5" spans="5:5">
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="5:5">
+    <row r="17" ht="13.5" spans="5:5">
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" ht="13.5" spans="5:5">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="5:5">
+    <row r="19" ht="13.5" spans="5:5">
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" ht="13.5" spans="5:5">
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="5:5">
+    <row r="21" ht="13.5" spans="5:5">
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="5:5">
+    <row r="22" ht="13.5" spans="5:5">
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="5:5">
+    <row r="23" ht="13.5" spans="5:5">
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="5:5">
+    <row r="24" ht="13.5" spans="5:5">
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="5:5">
+    <row r="25" ht="13.5" spans="5:5">
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="5:5">
+    <row r="26" ht="13.5" spans="5:5">
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="5:5">
+    <row r="27" ht="13.5" spans="5:5">
       <c r="E27" s="1"/>
     </row>
   </sheetData>
